--- a/VW_AQ_EOP_SWUTR_CR_ 39.xlsx
+++ b/VW_AQ_EOP_SWUTR_CR_ 39.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{E04B3D9F-B75B-4E96-AF35-C0E43A011FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1DCFA33-6E36-434F-A48E-E2B3B9B9B838}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{E04B3D9F-B75B-4E96-AF35-C0E43A011FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F08EC69-AB13-4C52-B915-C7064F90C0C2}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="320" windowWidth="19207" windowHeight="10073" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name=" apRteApp.c" sheetId="6" r:id="rId1"/>
+    <sheet name="filename.c" sheetId="6" r:id="rId1"/>
     <sheet name="SWUTR-Issue List" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' apRteApp.c'!$B$9:$T$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">filename.c!$B$9:$T$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SWUTR-Issue List'!$B$6:$M$8</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>TC ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -261,69 +261,6 @@
   <si>
     <t>(정렬)</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWDDS.1.2.2.7</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.2.2.7</t>
-  </si>
-  <si>
-    <t>CheckDrvStaAtCurLmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bae HyeonHan</t>
-  </si>
-  <si>
-    <t>SWDDS.1.2.2.14_1</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.2.2.14_1</t>
-  </si>
-  <si>
-    <t>CheckDrvStaCondHoldCnt</t>
-  </si>
-  <si>
-    <t>SWDDS.1.2.2.14_2</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.2.2.14_2</t>
-  </si>
-  <si>
-    <t>SWDDS.1.2.2.14_3</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.2.2.14_3</t>
-  </si>
-  <si>
-    <t>SWDDS.1.2.2.14_4</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.2.2.14_4</t>
-  </si>
-  <si>
-    <t>SWDDS.1.2.2.9</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.2.2.9</t>
-  </si>
-  <si>
-    <t>CheckDrvStaCtrFlt</t>
-  </si>
-  <si>
-    <t>SWDDS.1.2.2.8_1</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.2.2.8_1</t>
-  </si>
-  <si>
-    <t>CheckDrvStaShrtCir</t>
-  </si>
-  <si>
-    <t>SWDDS.1.2.2.8_2</t>
-  </si>
-  <si>
-    <t>SWUTS-F.1.2.2.8_2</t>
   </si>
 </sst>
 </file>
@@ -1088,30 +1025,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="27" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,10 +1062,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,6 +1121,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1938,69 +1875,69 @@
       <c r="ADU1" s="45"/>
     </row>
     <row r="2" spans="1:801" s="42" customFormat="1" ht="17.350000000000001">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="90" t="s">
+      <c r="N2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="90" t="s">
+      <c r="O2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="96" t="s">
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="98" t="s">
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="99" t="s">
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="90" t="s">
+      <c r="AA2" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="92" t="s">
+      <c r="AB2" s="102" t="s">
         <v>18</v>
       </c>
       <c r="XB2" s="45"/>
@@ -2172,25 +2109,25 @@
       <c r="ADU2" s="45"/>
     </row>
     <row r="3" spans="1:801" s="42" customFormat="1" ht="39" customHeight="1">
-      <c r="B3" s="91"/>
-      <c r="C3" s="90" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="90" t="s">
+      <c r="P3" s="91" t="s">
         <v>21</v>
       </c>
       <c r="Q3" s="47" t="s">
@@ -2205,7 +2142,7 @@
       <c r="T3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="94" t="s">
+      <c r="U3" s="104" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="48" t="s">
@@ -2217,12 +2154,12 @@
       <c r="X3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="96" t="s">
+      <c r="Y3" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="93"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="103"/>
       <c r="XB3" s="45"/>
       <c r="XC3" s="45"/>
       <c r="XD3" s="45"/>
@@ -2392,21 +2329,21 @@
       <c r="ADU3" s="45"/>
     </row>
     <row r="4" spans="1:801" s="42" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
       <c r="Q4" s="49">
         <f>SUM(Q5:Q6)</f>
         <v>0</v>
@@ -2423,7 +2360,7 @@
         <f>SUM(T5:T6)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="95"/>
+      <c r="U4" s="105"/>
       <c r="V4" s="48" t="str">
         <f>IFERROR(W4/X4,"N/A")</f>
         <v>N/A</v>
@@ -2436,10 +2373,10 @@
         <f>SUM(X5:X6)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="93"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="103"/>
       <c r="XB4" s="45"/>
       <c r="XC4" s="45"/>
       <c r="XD4" s="45"/>
@@ -2609,20 +2546,12 @@
       <c r="ADU4" s="45"/>
     </row>
     <row r="5" spans="1:801" ht="15" customHeight="1">
-      <c r="A5" s="97"/>
-      <c r="B5" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>56</v>
-      </c>
+      <c r="A5" s="90"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="74"/>
-      <c r="E5" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>59</v>
-      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="86"/>
       <c r="H5" s="73"/>
       <c r="I5" s="73"/>
@@ -2631,11 +2560,11 @@
       <c r="L5" s="73"/>
       <c r="M5" s="73" t="str">
         <f t="shared" ref="M5:N20" si="0">$B5&amp;".xls"</f>
-        <v>SWUTS-F.1.2.2.7.xls</v>
+        <v>.xls</v>
       </c>
       <c r="N5" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.7.xls</v>
+        <v>.xls</v>
       </c>
       <c r="O5" s="50" t="s">
         <v>29</v>
@@ -2650,27 +2579,17 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="39"/>
-      <c r="Z5" s="40">
-        <v>44455</v>
-      </c>
+      <c r="Z5" s="40"/>
       <c r="AA5" s="39"/>
       <c r="AB5" s="53"/>
     </row>
     <row r="6" spans="1:801" ht="15" customHeight="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>60</v>
-      </c>
+      <c r="A6" s="90"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="74"/>
-      <c r="E6" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>59</v>
-      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="73"/>
       <c r="H6" s="73"/>
       <c r="I6" s="73"/>
@@ -2679,11 +2598,11 @@
       <c r="L6" s="73"/>
       <c r="M6" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.14_1.xls</v>
+        <v>.xls</v>
       </c>
       <c r="N6" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.14_1.xls</v>
+        <v>.xls</v>
       </c>
       <c r="O6" s="50" t="s">
         <v>29</v>
@@ -2698,27 +2617,17 @@
       <c r="W6" s="52"/>
       <c r="X6" s="52"/>
       <c r="Y6" s="39"/>
-      <c r="Z6" s="40">
-        <v>44455</v>
-      </c>
+      <c r="Z6" s="40"/>
       <c r="AA6" s="39"/>
       <c r="AB6" s="53"/>
     </row>
     <row r="7" spans="1:801" ht="15" customHeight="1">
       <c r="A7" s="55"/>
-      <c r="B7" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>63</v>
-      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="74"/>
-      <c r="E7" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>59</v>
-      </c>
+      <c r="E7" s="74"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
       <c r="I7" s="73"/>
@@ -2727,11 +2636,11 @@
       <c r="L7" s="74"/>
       <c r="M7" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.14_2.xls</v>
+        <v>.xls</v>
       </c>
       <c r="N7" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.14_2.xls</v>
+        <v>.xls</v>
       </c>
       <c r="O7" s="50" t="s">
         <v>29</v>
@@ -2746,26 +2655,16 @@
       <c r="W7" s="38"/>
       <c r="X7" s="38"/>
       <c r="Y7" s="38"/>
-      <c r="Z7" s="41">
-        <v>44455</v>
-      </c>
+      <c r="Z7" s="38"/>
       <c r="AA7" s="38"/>
     </row>
     <row r="8" spans="1:801" ht="15" customHeight="1">
       <c r="A8" s="55"/>
-      <c r="B8" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>65</v>
-      </c>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="79"/>
-      <c r="E8" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>59</v>
-      </c>
+      <c r="E8" s="79"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="78"/>
       <c r="H8" s="80"/>
       <c r="I8" s="81"/>
@@ -2774,11 +2673,11 @@
       <c r="L8" s="83"/>
       <c r="M8" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.14_3.xls</v>
+        <v>.xls</v>
       </c>
       <c r="N8" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.14_3.xls</v>
+        <v>.xls</v>
       </c>
       <c r="O8" s="50" t="s">
         <v>29</v>
@@ -2793,26 +2692,16 @@
       <c r="W8" s="52"/>
       <c r="X8" s="52"/>
       <c r="Y8" s="58"/>
-      <c r="Z8" s="59">
-        <v>44455</v>
-      </c>
+      <c r="Z8" s="59"/>
       <c r="AA8" s="60"/>
     </row>
     <row r="9" spans="1:801" ht="15" customHeight="1">
       <c r="A9" s="55"/>
-      <c r="B9" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>67</v>
-      </c>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="78"/>
-      <c r="E9" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>59</v>
-      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78"/>
       <c r="I9" s="81"/>
@@ -2821,11 +2710,11 @@
       <c r="L9" s="83"/>
       <c r="M9" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.14_4.xls</v>
+        <v>.xls</v>
       </c>
       <c r="N9" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.14_4.xls</v>
+        <v>.xls</v>
       </c>
       <c r="O9" s="50" t="s">
         <v>29</v>
@@ -2840,26 +2729,16 @@
       <c r="W9" s="52"/>
       <c r="X9" s="52"/>
       <c r="Y9" s="56"/>
-      <c r="Z9" s="59">
-        <v>44455</v>
-      </c>
+      <c r="Z9" s="59"/>
       <c r="AA9" s="56"/>
     </row>
     <row r="10" spans="1:801" ht="15" customHeight="1">
       <c r="A10" s="55"/>
-      <c r="B10" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>69</v>
-      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="74"/>
-      <c r="E10" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>59</v>
-      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78"/>
       <c r="I10" s="74"/>
@@ -2868,11 +2747,11 @@
       <c r="L10" s="83"/>
       <c r="M10" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.9.xls</v>
+        <v>.xls</v>
       </c>
       <c r="N10" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.9.xls</v>
+        <v>.xls</v>
       </c>
       <c r="O10" s="50" t="s">
         <v>29</v>
@@ -2887,26 +2766,16 @@
       <c r="W10" s="52"/>
       <c r="X10" s="52"/>
       <c r="Y10" s="38"/>
-      <c r="Z10" s="59">
-        <v>44455</v>
-      </c>
+      <c r="Z10" s="59"/>
       <c r="AA10" s="38"/>
     </row>
     <row r="11" spans="1:801" ht="15" customHeight="1">
       <c r="A11" s="55"/>
-      <c r="B11" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>72</v>
-      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="74"/>
-      <c r="E11" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>59</v>
-      </c>
+      <c r="E11" s="78"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
       <c r="I11" s="74"/>
@@ -2915,11 +2784,11 @@
       <c r="L11" s="83"/>
       <c r="M11" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.8_1.xls</v>
+        <v>.xls</v>
       </c>
       <c r="N11" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.8_1.xls</v>
+        <v>.xls</v>
       </c>
       <c r="O11" s="50" t="s">
         <v>29</v>
@@ -2934,26 +2803,16 @@
       <c r="W11" s="52"/>
       <c r="X11" s="52"/>
       <c r="Y11" s="38"/>
-      <c r="Z11" s="59">
-        <v>44455</v>
-      </c>
+      <c r="Z11" s="59"/>
       <c r="AA11" s="38"/>
     </row>
     <row r="12" spans="1:801" ht="15" customHeight="1">
       <c r="A12" s="55"/>
-      <c r="B12" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>75</v>
-      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="79"/>
-      <c r="E12" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>59</v>
-      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="78"/>
       <c r="H12" s="74"/>
       <c r="I12" s="74"/>
@@ -2962,11 +2821,11 @@
       <c r="L12" s="74"/>
       <c r="M12" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.8_2.xls</v>
+        <v>.xls</v>
       </c>
       <c r="N12" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>SWUTS-F.1.2.2.8_2.xls</v>
+        <v>.xls</v>
       </c>
       <c r="O12" s="50" t="s">
         <v>29</v>
@@ -2981,9 +2840,7 @@
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
-      <c r="Z12" s="59">
-        <v>44455</v>
-      </c>
+      <c r="Z12" s="59"/>
       <c r="AA12" s="38"/>
     </row>
     <row r="13" spans="1:801" ht="15" customHeight="1">
@@ -23096,6 +22953,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:U2"/>
@@ -23112,14 +22977,6 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="Y3:Y4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="U8 Y8 P8:P11">
@@ -23263,15 +23120,15 @@
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="112" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -23279,11 +23136,11 @@
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -23297,83 +23154,83 @@
     <row r="5" spans="1:16" s="9" customFormat="1" ht="20" customHeight="1"/>
     <row r="6" spans="1:16" ht="20" customHeight="1">
       <c r="A6" s="36"/>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="107" t="s">
+      <c r="G6" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="106" t="s">
+      <c r="H6" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="106" t="s">
+      <c r="I6" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="106" t="s">
+      <c r="J6" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="106" t="s">
+      <c r="K6" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="106" t="s">
+      <c r="L6" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="106" t="s">
+      <c r="M6" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="106" t="s">
+      <c r="N6" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="106" t="s">
+      <c r="O6" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="106" t="s">
+      <c r="P6" s="122" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="36"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="106" t="s">
+      <c r="J7" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="106" t="s">
+      <c r="L7" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="106" t="s">
+      <c r="N7" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="106" t="s">
+      <c r="O7" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="106" t="s">
+      <c r="P7" s="122" t="s">
         <v>54</v>
       </c>
     </row>
@@ -24271,13 +24128,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
@@ -24288,6 +24138,13 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I8:J8">
